--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/3.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/3.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2587033772983262</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.68594829388578</v>
+        <v>-1.747126482082935</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06970476391740053</v>
+        <v>0.05697567128344187</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.08857387686323273</v>
+        <v>-0.08412412480731568</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2566402627547861</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.736742677939714</v>
+        <v>-1.788916689753468</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06227539366486129</v>
+        <v>0.04179740489673934</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.08424532427965584</v>
+        <v>-0.07746602392421377</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2797419286629901</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.848017959720066</v>
+        <v>-1.891722174642101</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06293018561932237</v>
+        <v>0.03911999837140687</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.08360942055465036</v>
+        <v>-0.07761398172161604</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.319017468230992</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.956259319644111</v>
+        <v>-1.982225913088209</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08294069070841802</v>
+        <v>0.04382474152497463</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.09279697016568247</v>
+        <v>-0.0841776414574399</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.3554686935984965</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.964229365464817</v>
+        <v>-1.98366771460332</v>
       </c>
       <c r="F6" t="n">
-        <v>0.120950104449587</v>
+        <v>0.06853211967203152</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1214456921924763</v>
+        <v>-0.1038481584163346</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.3719207937234253</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.879625837694905</v>
+        <v>-1.882762857803657</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1958183239542542</v>
+        <v>0.1302997780301131</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1288797845023794</v>
+        <v>-0.1072826681390127</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.3592457097631093</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.640848711012712</v>
+        <v>-1.632751956652742</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2396610525589636</v>
+        <v>0.1707001268165379</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1322324452307499</v>
+        <v>-0.1082994844913729</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.3192957189974275</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.29651235298917</v>
+        <v>-1.274428864717322</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2989134283612067</v>
+        <v>0.205972321305765</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1314438616509783</v>
+        <v>-0.1002326364947069</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.2575386404677821</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.8432263264369984</v>
+        <v>-0.8004854112171995</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3083355068213126</v>
+        <v>0.2168786997972574</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.09961876903739965</v>
+        <v>-0.06528783798271036</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1753924671995357</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.3366015139213099</v>
+        <v>-0.3045544846116279</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2422975345871423</v>
+        <v>0.138486251479998</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.06307791513640419</v>
+        <v>-0.02852347336649019</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.07467625891752623</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2438967380143837</v>
+        <v>0.267496006700045</v>
       </c>
       <c r="F12" t="n">
-        <v>0.07537123275408301</v>
+        <v>-0.04718819210687374</v>
       </c>
       <c r="G12" t="n">
-        <v>0.005528856303728891</v>
+        <v>0.03475996540540396</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.04114554817242703</v>
       </c>
       <c r="E13" t="n">
-        <v>0.837641934874944</v>
+        <v>0.8444149391539009</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.2039825328561204</v>
+        <v>-0.3438120955159883</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1034674740693003</v>
+        <v>0.1326718248459132</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.1682211503159951</v>
       </c>
       <c r="E14" t="n">
-        <v>1.45586312907173</v>
+        <v>1.438604009406668</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.5127972143597089</v>
+        <v>-0.6600073526793557</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2227907156168628</v>
+        <v>0.2500480047404268</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.3014029977248021</v>
       </c>
       <c r="E15" t="n">
-        <v>2.105796086505361</v>
+        <v>2.093943722521967</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.8361149080469619</v>
+        <v>-0.9914170786692156</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3315145124015865</v>
+        <v>0.3589827200874048</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.436504652006324</v>
       </c>
       <c r="E16" t="n">
-        <v>2.664418620693218</v>
+        <v>2.635433058574465</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.149069259839571</v>
+        <v>-1.311034253402291</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4674830061569039</v>
+        <v>0.4924201910956706</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.5747031789098448</v>
       </c>
       <c r="E17" t="n">
-        <v>3.276379940844591</v>
+        <v>3.193416540999074</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.500301395633531</v>
+        <v>-1.64905092465381</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5977803090181748</v>
+        <v>0.6207232117302536</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.7177451787681582</v>
       </c>
       <c r="E18" t="n">
-        <v>3.758495701622506</v>
+        <v>3.647088202235965</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.835689454952478</v>
+        <v>-1.980261537224825</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7306936316590474</v>
+        <v>0.7590259758424598</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.8672100645850731</v>
       </c>
       <c r="E19" t="n">
-        <v>4.182859126820778</v>
+        <v>4.035886665388448</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.190053101788266</v>
+        <v>-2.33032575083078</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8836646799626549</v>
+        <v>0.9027842902290942</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.020411000173886</v>
       </c>
       <c r="E20" t="n">
-        <v>4.528271326913729</v>
+        <v>4.357834962440169</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.544483644436709</v>
+        <v>-2.676150343933512</v>
       </c>
       <c r="G20" t="n">
-        <v>1.037970496481125</v>
+        <v>1.047257209296799</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.167873473049801</v>
       </c>
       <c r="E21" t="n">
-        <v>4.818544063168395</v>
+        <v>4.629620844115159</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.867782449894507</v>
+        <v>-2.977349920928248</v>
       </c>
       <c r="G21" t="n">
-        <v>1.172635702404005</v>
+        <v>1.171551203229429</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.303088215484227</v>
       </c>
       <c r="E22" t="n">
-        <v>5.037954458582105</v>
+        <v>4.826459805329416</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.129027912523706</v>
+        <v>-3.223910572165273</v>
       </c>
       <c r="G22" t="n">
-        <v>1.261769257205021</v>
+        <v>1.257070810127938</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.42206498912354</v>
       </c>
       <c r="E23" t="n">
-        <v>5.200021763387708</v>
+        <v>4.966046969044604</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.291674456365949</v>
+        <v>-3.365699001621599</v>
       </c>
       <c r="G23" t="n">
-        <v>1.349653040823724</v>
+        <v>1.346344452630749</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.521760825286953</v>
       </c>
       <c r="E24" t="n">
-        <v>5.253110280310938</v>
+        <v>5.022566847652269</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.464596197032042</v>
+        <v>-3.518290711316973</v>
       </c>
       <c r="G24" t="n">
-        <v>1.42681932824549</v>
+        <v>1.415598145929737</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.601774458186793</v>
       </c>
       <c r="E25" t="n">
-        <v>5.298097320816833</v>
+        <v>5.055364684082812</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.587973324826515</v>
+        <v>-3.632172568762199</v>
       </c>
       <c r="G25" t="n">
-        <v>1.46947682045186</v>
+        <v>1.453996342393867</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.660444876011171</v>
       </c>
       <c r="E26" t="n">
-        <v>5.281415866169288</v>
+        <v>5.051113258436178</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.669020356391848</v>
+        <v>-3.683976686082447</v>
       </c>
       <c r="G26" t="n">
-        <v>1.510923891953949</v>
+        <v>1.494484836251085</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.696042872445563</v>
       </c>
       <c r="E27" t="n">
-        <v>5.237458234168724</v>
+        <v>5.020643396286039</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.685276038867081</v>
+        <v>-3.664465145054804</v>
       </c>
       <c r="G27" t="n">
-        <v>1.521436765665117</v>
+        <v>1.49676558995785</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.709024029572998</v>
       </c>
       <c r="E28" t="n">
-        <v>5.073909777369976</v>
+        <v>4.865922038719546</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.635300931765784</v>
+        <v>-3.610155189293445</v>
       </c>
       <c r="G28" t="n">
-        <v>1.503861268156673</v>
+        <v>1.474592382596087</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.698731814112797</v>
       </c>
       <c r="E29" t="n">
-        <v>4.949757445158263</v>
+        <v>4.743104474722696</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.579869487380499</v>
+        <v>-3.545428374987318</v>
       </c>
       <c r="G29" t="n">
-        <v>1.452919713314898</v>
+        <v>1.426003986340656</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.665990011955453</v>
       </c>
       <c r="E30" t="n">
-        <v>4.780665293014294</v>
+        <v>4.593901628195482</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.481122610796139</v>
+        <v>-3.437807965606626</v>
       </c>
       <c r="G30" t="n">
-        <v>1.405313504991158</v>
+        <v>1.37480744040123</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.614329266876575</v>
       </c>
       <c r="E31" t="n">
-        <v>4.627629709926714</v>
+        <v>4.450404600982984</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.369253923807057</v>
+        <v>-3.325258515347581</v>
       </c>
       <c r="G31" t="n">
-        <v>1.328783121294398</v>
+        <v>1.299552012192722</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.547734586619662</v>
       </c>
       <c r="E32" t="n">
-        <v>4.459603168727865</v>
+        <v>4.301971449806087</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.239316284315003</v>
+        <v>-3.196750872227229</v>
       </c>
       <c r="G32" t="n">
-        <v>1.245432512745041</v>
+        <v>1.221250856984498</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.470785094531668</v>
       </c>
       <c r="E33" t="n">
-        <v>4.223476690245942</v>
+        <v>4.092807918872045</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.102720543939847</v>
+        <v>-3.074349636287963</v>
       </c>
       <c r="G33" t="n">
-        <v>1.146256715950127</v>
+        <v>1.134583790146561</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.389137419677449</v>
       </c>
       <c r="E34" t="n">
-        <v>3.933364503941648</v>
+        <v>3.823913510322884</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.014525104535127</v>
+        <v>-2.987787241721592</v>
       </c>
       <c r="G34" t="n">
-        <v>1.075569091231635</v>
+        <v>1.06986327191692</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.305366223065616</v>
       </c>
       <c r="E35" t="n">
-        <v>3.657664036711984</v>
+        <v>3.567264970537443</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.895110569878529</v>
+        <v>-2.885690852447105</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9829443620195744</v>
+        <v>0.9822754038930216</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.223711320484876</v>
       </c>
       <c r="E36" t="n">
-        <v>3.390900850053065</v>
+        <v>3.311233446247552</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.817549203657316</v>
+        <v>-2.811837875275677</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8957830531775488</v>
+        <v>0.8962473888183325</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.14642483101419</v>
       </c>
       <c r="E37" t="n">
-        <v>3.097376190293791</v>
+        <v>3.030941565241053</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.696174228185138</v>
+        <v>-2.699039729995466</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8249994132926569</v>
+        <v>0.8317346411127026</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.072461918519632</v>
       </c>
       <c r="E38" t="n">
-        <v>2.807363167194139</v>
+        <v>2.748963909755641</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.604006751527816</v>
+        <v>-2.605113286970091</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7630538907738683</v>
+        <v>0.7727293863125037</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.002502320064858</v>
       </c>
       <c r="E39" t="n">
-        <v>2.516950343237677</v>
+        <v>2.470881951595449</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.492636241590625</v>
+        <v>-2.505311030564899</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6985978077566052</v>
+        <v>0.706109027003452</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.9350914449569174</v>
       </c>
       <c r="E40" t="n">
-        <v>2.285986647473621</v>
+        <v>2.237859438820731</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.400407378187572</v>
+        <v>-2.417542150342051</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6467905423981143</v>
+        <v>0.6479175400889656</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.8671889859279661</v>
       </c>
       <c r="E41" t="n">
-        <v>2.101629657891278</v>
+        <v>2.049540643110074</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.298802869888491</v>
+        <v>-2.318386815795714</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5730729308711179</v>
+        <v>0.5818465134532479</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.7988915103898026</v>
       </c>
       <c r="E42" t="n">
-        <v>1.883196728351896</v>
+        <v>1.822894481795746</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.216653237928687</v>
+        <v>-2.231702434747443</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5082642675706833</v>
+        <v>0.5107417736676106</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.7293366412613022</v>
       </c>
       <c r="E43" t="n">
-        <v>1.659816656714266</v>
+        <v>1.602575877349046</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.127144279567242</v>
+        <v>-2.146975346476509</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4542832818056763</v>
+        <v>0.4574816886601593</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.6579573854530506</v>
       </c>
       <c r="E44" t="n">
-        <v>1.436830089856962</v>
+        <v>1.382269865055316</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.055824686171547</v>
+        <v>-2.066879809470002</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4023721311851796</v>
+        <v>0.4035447754305486</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.5863725179746428</v>
       </c>
       <c r="E45" t="n">
-        <v>1.233594314933739</v>
+        <v>1.177423868571002</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.971790953323546</v>
+        <v>-1.978826031786199</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3438548223125839</v>
+        <v>0.3485941938868203</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.5149830205273143</v>
       </c>
       <c r="E46" t="n">
-        <v>1.051713257429201</v>
+        <v>0.9890027616174607</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.896845606881935</v>
+        <v>-1.908088038455825</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2839051560396046</v>
+        <v>0.2847441082312579</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.4449030295912761</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9001745665259777</v>
+        <v>0.844473177861389</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.831703251527784</v>
+        <v>-1.848384706175329</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2518266463474966</v>
+        <v>0.2473753202724583</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.3776887160696831</v>
       </c>
       <c r="E48" t="n">
-        <v>0.7397206313197069</v>
+        <v>0.6854909505335343</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.776171069918736</v>
+        <v>-1.790231782729315</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1946173473647018</v>
+        <v>0.1929441650387592</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.3136869911353509</v>
       </c>
       <c r="E49" t="n">
-        <v>0.6284799779600234</v>
+        <v>0.570801621279081</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.736829248991385</v>
+        <v>-1.750434283266348</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1493831858567627</v>
+        <v>0.1488543154320056</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.2539487227527681</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5398264989910048</v>
+        <v>0.4720602537616462</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.670565405013309</v>
+        <v>-1.687033580069917</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1126251173170277</v>
+        <v>0.1098753059121154</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.1989935697901572</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4167208894949567</v>
+        <v>0.3488570550800775</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.611080861390674</v>
+        <v>-1.630948917749292</v>
       </c>
       <c r="G51" t="n">
-        <v>0.07180765346345826</v>
+        <v>0.06851795349993982</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.148373595421187</v>
       </c>
       <c r="E52" t="n">
-        <v>0.295297906439579</v>
+        <v>0.2365618089091225</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.57237573119789</v>
+        <v>-1.589985070117441</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03727367394212117</v>
+        <v>0.0384903907228866</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.1025565066659702</v>
       </c>
       <c r="E53" t="n">
-        <v>0.2047367162955439</v>
+        <v>0.1501780655130195</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.549513103460997</v>
+        <v>-1.563365258738004</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.01154925116238357</v>
+        <v>-0.006578498777315999</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.06109432925681985</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1119734734008092</v>
+        <v>0.05981834981651091</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.52221567684984</v>
+        <v>-1.542466219854934</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.03142439060704735</v>
+        <v>-0.02662992836356546</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.02300335762484468</v>
       </c>
       <c r="E55" t="n">
-        <v>0.02634840722117309</v>
+        <v>-0.02387224686304665</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.522662698280289</v>
+        <v>-1.540311387677873</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.05892565269441297</v>
+        <v>-0.05614750894531726</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.01159935576428446</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.05774513835343745</v>
+        <v>-0.09871056000440916</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.512820356714796</v>
+        <v>-1.532967014457884</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.09454570540944754</v>
+        <v>-0.09036038856590901</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.0434140724040477</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.1347477277865884</v>
+        <v>-0.1709973881501432</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.516778227795307</v>
+        <v>-1.535037636611955</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1170856592264734</v>
+        <v>-0.1146821320282472</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.07305318511730252</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.2369519373708847</v>
+        <v>-0.2650009581124629</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.536618738819302</v>
+        <v>-1.546141554503171</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1608402427603899</v>
+        <v>-0.1498614593893176</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.1000879853896531</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.3130242815033469</v>
+        <v>-0.34161161678441</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.548319996967051</v>
+        <v>-1.558513344796594</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1904270801834789</v>
+        <v>-0.1771439328188224</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.1247689986440851</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.4078951360015032</v>
+        <v>-0.4276034294193092</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.554491725941671</v>
+        <v>-1.5659993797375</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.2185910043209121</v>
+        <v>-0.2016907610155066</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.1469138609121987</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.4986341903062453</v>
+        <v>-0.5127326795757355</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.595056559726272</v>
+        <v>-1.600183140004348</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2507356228161148</v>
+        <v>-0.2351260751901759</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.1668354283544808</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.5752511450546776</v>
+        <v>-0.5799338519405471</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.619773381988057</v>
+        <v>-1.62692965992305</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2684338938160197</v>
+        <v>-0.2519570616542441</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.184738476599333</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.6579060371524194</v>
+        <v>-0.6537285904044873</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.671423245434417</v>
+        <v>-1.679977252349126</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.3044049527951043</v>
+        <v>-0.2838451150326747</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.2010584673089889</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.7450169773825632</v>
+        <v>-0.7270668633232502</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.709611310345854</v>
+        <v>-1.712625556963145</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.3428377776799033</v>
+        <v>-0.316809797490075</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.2164615256545316</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8340749792657561</v>
+        <v>-0.8111588348787395</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.768644897490236</v>
+        <v>-1.7617994883317</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3686564133265984</v>
+        <v>-0.3429857354773055</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.2308114495205884</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9075494048385117</v>
+        <v>-0.8811727794133154</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.810140763585086</v>
+        <v>-1.801834664681983</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3958161132646418</v>
+        <v>-0.3672051676967592</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.244640671057872</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9848699461341653</v>
+        <v>-0.9474161611428155</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.834195710806364</v>
+        <v>-1.829478375499826</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.4261049632158309</v>
+        <v>-0.3943664416539239</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.2578181253869914</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.026594045001604</v>
+        <v>-0.985221739407776</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.859063638903794</v>
+        <v>-1.858704762544137</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4447822741091849</v>
+        <v>-0.4138685385668394</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.2694015256676048</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.045916703734691</v>
+        <v>-1.006058604535555</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.926526885452302</v>
+        <v>-1.917226793474097</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4701381481342177</v>
+        <v>-0.4358811959782295</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.2791200942069075</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.031748170614303</v>
+        <v>-0.9961588112721339</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.942078981380313</v>
+        <v>-1.932186271202939</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4891743353872282</v>
+        <v>-0.4507761389230979</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.2866792666022865</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.027961867618014</v>
+        <v>-0.9987960803098732</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.958691966196081</v>
+        <v>-1.950384293273856</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4968586967374181</v>
+        <v>-0.4621972216672557</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.2920469791003024</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.036894426131396</v>
+        <v>-0.9990125079390521</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.000393241786261</v>
+        <v>-1.993083496986941</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4933218757718555</v>
+        <v>-0.4601997914023251</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.2952847196721799</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.9682514522514727</v>
+        <v>-0.9401599329936193</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.995219440934546</v>
+        <v>-2.002999030441575</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5067167784941243</v>
+        <v>-0.4727037993019378</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.2961645657282733</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.8733467563422084</v>
+        <v>-0.8631722967421207</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.01853223814013</v>
+        <v>-2.029029371660084</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5045808345465194</v>
+        <v>-0.4677251768212637</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.2943275063913113</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.7821591065878956</v>
+        <v>-0.7807519334934527</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.019749741930456</v>
+        <v>-2.041165846094874</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.5035435559455822</v>
+        <v>-0.4711266321423945</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.2901170508769568</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.6482997984551212</v>
+        <v>-0.6664592570575673</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.00779821474242</v>
+        <v>-2.041486945995619</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4886517610389564</v>
+        <v>-0.4572658197602206</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.283128733195248</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.5261417484700961</v>
+        <v>-0.5585681163880116</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.987220275760096</v>
+        <v>-2.022365761710058</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4556650423138578</v>
+        <v>-0.4354719510066913</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.2733730719857818</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.3735106882966897</v>
+        <v>-0.4191399286040754</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.998236048580519</v>
+        <v>-2.030950461997632</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4299251076232277</v>
+        <v>-0.4170921297272632</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.2611829124903792</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.1862826878370942</v>
+        <v>-0.2472633366345255</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.970700945082045</v>
+        <v>-2.01152549202166</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3948402214094354</v>
+        <v>-0.3863342220779264</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.2465485239116783</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.02043616312124726</v>
+        <v>-0.08998419799591814</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.911278575214701</v>
+        <v>-1.959711930586684</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3685525280645925</v>
+        <v>-0.3614033332156448</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.2293135636519785</v>
       </c>
       <c r="E81" t="n">
-        <v>0.1940491264619123</v>
+        <v>0.1174022653501753</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.884018925062455</v>
+        <v>-1.929943293955085</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3260241054261693</v>
+        <v>-0.3274013721573074</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2092992862367809</v>
       </c>
       <c r="E82" t="n">
-        <v>0.3933923520981591</v>
+        <v>0.3017781431619739</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.855825881571278</v>
+        <v>-1.90032497614957</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2857134757296587</v>
+        <v>-0.2922850055610891</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1863723053786191</v>
       </c>
       <c r="E83" t="n">
-        <v>0.5961968457821463</v>
+        <v>0.5037043341762752</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.804580541039092</v>
+        <v>-1.842989755637071</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2475938806499986</v>
+        <v>-0.258536461581281</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1605669094990195</v>
       </c>
       <c r="E84" t="n">
-        <v>0.7958438571088042</v>
+        <v>0.7031813514378328</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.731426428357521</v>
+        <v>-1.761985222588013</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1997043488844252</v>
+        <v>-0.2163952476466977</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1321012170970186</v>
       </c>
       <c r="E85" t="n">
-        <v>1.008295513987243</v>
+        <v>0.8972579090942076</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.648027025215404</v>
+        <v>-1.66412924082631</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1632705282836782</v>
+        <v>-0.176906255931506</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1008836528003659</v>
       </c>
       <c r="E86" t="n">
-        <v>1.21687193578904</v>
+        <v>1.107496495088098</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.561127003547514</v>
+        <v>-1.573437407095207</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1199377818742702</v>
+        <v>-0.1391817396512924</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.06789374746265384</v>
       </c>
       <c r="E87" t="n">
-        <v>1.394907664580239</v>
+        <v>1.293553425321446</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.449818667365615</v>
+        <v>-1.455190794626614</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.08099969685153381</v>
+        <v>-0.1017641570997325</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.03485352153371107</v>
       </c>
       <c r="E88" t="n">
-        <v>1.543076380544758</v>
+        <v>1.451545594622002</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.321087513530038</v>
+        <v>-1.316187592005429</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.04693949708570824</v>
+        <v>-0.06967620329289667</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.004773301731409679</v>
       </c>
       <c r="E89" t="n">
-        <v>1.657307670234913</v>
+        <v>1.571679456017035</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.160295164212688</v>
+        <v>-1.14996330270047</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.02327254557783109</v>
+        <v>-0.04516715155512366</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.01877990170385914</v>
       </c>
       <c r="E90" t="n">
-        <v>1.74427694874414</v>
+        <v>1.663174039500001</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.005765836978993</v>
+        <v>-0.9856451505514059</v>
       </c>
       <c r="G90" t="n">
-        <v>0.005081834873279496</v>
+        <v>-0.01830179319276352</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.03279914255622465</v>
       </c>
       <c r="E91" t="n">
-        <v>1.811522193644348</v>
+        <v>1.736128251753166</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8265322796364832</v>
+        <v>-0.8015604662770479</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0003440373181644258</v>
+        <v>-0.01958304475750228</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.03535184710079925</v>
       </c>
       <c r="E92" t="n">
-        <v>1.864774408556193</v>
+        <v>1.787578214771122</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.6148267078215408</v>
+        <v>-0.593715963366656</v>
       </c>
       <c r="G92" t="n">
-        <v>0.002294247009455978</v>
+        <v>-0.02041412685354905</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.02563283109152409</v>
       </c>
       <c r="E93" t="n">
-        <v>1.863919716173327</v>
+        <v>1.78946388967844</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.4538911227641519</v>
+        <v>-0.425985337762612</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.01010272758990824</v>
+        <v>-0.02971500584131481</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.005749289162585294</v>
       </c>
       <c r="E94" t="n">
-        <v>1.848790244379384</v>
+        <v>1.771839597577237</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2685062986955996</v>
+        <v>-0.2430465394085609</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.03867589669887962</v>
+        <v>-0.05758301438394348</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.01986362844408754</v>
       </c>
       <c r="E95" t="n">
-        <v>1.785911328521665</v>
+        <v>1.720754806995423</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.1155793229273886</v>
+        <v>-0.09950858769890861</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.0411471067193217</v>
+        <v>-0.05693294448684631</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.04511732933899164</v>
       </c>
       <c r="E96" t="n">
-        <v>1.71381810472785</v>
+        <v>1.65013958715651</v>
       </c>
       <c r="F96" t="n">
-        <v>0.008736707272939693</v>
+        <v>0.02532529479232764</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.06702870313086891</v>
+        <v>-0.08305221778570991</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.06424878193410061</v>
       </c>
       <c r="E97" t="n">
-        <v>1.578976608663385</v>
+        <v>1.53324033505575</v>
       </c>
       <c r="F97" t="n">
-        <v>0.08117621527343995</v>
+        <v>0.09323162772348191</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.09548854286310665</v>
+        <v>-0.1079925507627193</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.07587466806094394</v>
       </c>
       <c r="E98" t="n">
-        <v>1.44775535657791</v>
+        <v>1.409435861069845</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1293994390927291</v>
+        <v>0.145893585464839</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1069222177602348</v>
+        <v>-0.119627700107374</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.08075372210322984</v>
       </c>
       <c r="E99" t="n">
-        <v>1.313534024047237</v>
+        <v>1.277278067607196</v>
       </c>
       <c r="F99" t="n">
-        <v>0.148578862085778</v>
+        <v>0.1633683457495193</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1294275431565921</v>
+        <v>-0.1404598431777886</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.08379059431047278</v>
       </c>
       <c r="E100" t="n">
-        <v>1.169429425453916</v>
+        <v>1.142274447573236</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1668673902561707</v>
+        <v>0.1823321281229499</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1300807610919319</v>
+        <v>-0.1428885546819555</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.08756181981276326</v>
       </c>
       <c r="E101" t="n">
-        <v>1.038760654080018</v>
+        <v>1.01470491984918</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1617093295956683</v>
+        <v>0.1826217476412693</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1533510597812412</v>
+        <v>-0.1648461214241002</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.09825885258859821</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9115075041993427</v>
+        <v>0.8953769562442532</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1550244703875043</v>
+        <v>0.1771126807167169</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1489390841842354</v>
+        <v>-0.1671363192455927</v>
       </c>
     </row>
   </sheetData>
